--- a/Payroll Analysis/ComparedResults/LAVTA_Comparison.xlsx
+++ b/Payroll Analysis/ComparedResults/LAVTA_Comparison.xlsx
@@ -11,6 +11,7 @@
     <sheet name="OperatorChanges" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="TripsComparison" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="HoursComparison" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LeaseComparison" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -687,7 +688,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>ROBERTSON, SARAH</t>
+          <t>SILVA PAUL</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -704,7 +705,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>SILVA PAUL</t>
+          <t>ROBERTSON, SARAH</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -1120,4 +1121,147 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>BUFFINGTON TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>JORGE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>NEMIA CARE LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>PEOPLE FIRST TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Payroll Analysis/ComparedResults/LAVTA_Comparison.xlsx
+++ b/Payroll Analysis/ComparedResults/LAVTA_Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ComparePayroll\Payroll Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B8AA7F-620E-4136-9AAB-EF6123889782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65594E7F-F0B6-4AAC-BCE7-86147F316276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="4185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>Metric</t>
   </si>
@@ -44,7 +44,7 @@
     <t>TRIPS</t>
   </si>
   <si>
-    <t>Increased</t>
+    <t>Decreased</t>
   </si>
   <si>
     <t>HOURS</t>
@@ -53,9 +53,6 @@
     <t>OPERATORS</t>
   </si>
   <si>
-    <t>Decreased</t>
-  </si>
-  <si>
     <t>DAYS</t>
   </si>
   <si>
@@ -71,88 +68,97 @@
     <t>Partner</t>
   </si>
   <si>
-    <t>MUNOZ, ANA</t>
+    <t>SILVA PAUL</t>
+  </si>
+  <si>
+    <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>FOWLER, ANTOINE</t>
+  </si>
+  <si>
+    <t>FOWLER SENIOR TRANSIT LLC</t>
+  </si>
+  <si>
+    <t>COLEMAN, SHAWN</t>
+  </si>
+  <si>
+    <t>TRULY TRANSPORT LLC</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>UMANA, DOMINGO</t>
+  </si>
+  <si>
+    <t>SALGUERO, JORGE</t>
+  </si>
+  <si>
+    <t>TRI VALLEY TRANSPORTATION INC.</t>
+  </si>
+  <si>
+    <t>BROWN, JAMES</t>
+  </si>
+  <si>
+    <t>DEL CASTILLO, ABEL</t>
+  </si>
+  <si>
+    <t>KEITH , CLYDE</t>
+  </si>
+  <si>
+    <t>BUFFINGTON, BLAKE</t>
+  </si>
+  <si>
+    <t>BUTLER, JACQUELINE</t>
+  </si>
+  <si>
+    <t>QUICK RIDES CA</t>
+  </si>
+  <si>
+    <t>SAIFON WISETMEE</t>
+  </si>
+  <si>
+    <t>SILVA, PAUL</t>
+  </si>
+  <si>
+    <t>BROWN JAMES</t>
+  </si>
+  <si>
+    <t>PARTNER</t>
+  </si>
+  <si>
+    <t>PREVIOUS</t>
+  </si>
+  <si>
+    <t>LATEST</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>BUFFINGTON TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>GET CARE TRANSIT LLC</t>
+  </si>
+  <si>
+    <t>HUGO FAMILY TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>JORGE TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>NEMIA CARE LLC</t>
   </si>
   <si>
     <t>PEOPLE FIRST TRANSIT LLC</t>
   </si>
   <si>
-    <t>Added</t>
-  </si>
-  <si>
-    <t>ROGERS, JAMES</t>
-  </si>
-  <si>
-    <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-  </si>
-  <si>
-    <t>LARA, DOUGLAS</t>
-  </si>
-  <si>
-    <t>EVANS, JOHN</t>
-  </si>
-  <si>
-    <t>SULEIMAN, AHMED</t>
-  </si>
-  <si>
-    <t>NEMIA CARE LLC</t>
-  </si>
-  <si>
-    <t>GETU BOGALE</t>
-  </si>
-  <si>
-    <t>GET CARE TRANSIT LLC</t>
-  </si>
-  <si>
-    <t>Removed</t>
-  </si>
-  <si>
-    <t>HUGO, TAMA</t>
-  </si>
-  <si>
-    <t>HUGO FAMILY TRANSPORTATION</t>
-  </si>
-  <si>
-    <t>MOLLIQUE, ROMESHA</t>
-  </si>
-  <si>
-    <t>MONAI&amp;SON'S LLC</t>
-  </si>
-  <si>
-    <t>SILVA, PAUL</t>
-  </si>
-  <si>
-    <t>VILCHEZ, CHARLENNE</t>
-  </si>
-  <si>
-    <t>NORTHCAL TRANSPORTATION LLC</t>
-  </si>
-  <si>
-    <t>ALLGOOD, SCOTT</t>
-  </si>
-  <si>
-    <t>PARTNER</t>
-  </si>
-  <si>
-    <t>PREVIOUS</t>
-  </si>
-  <si>
-    <t>LATEST</t>
-  </si>
-  <si>
-    <t>CHANGE</t>
-  </si>
-  <si>
-    <t>BUFFINGTON TRANSPORTATION LLC</t>
-  </si>
-  <si>
-    <t>JORGE TRANSPORTATION</t>
-  </si>
-  <si>
     <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
-  </si>
-  <si>
-    <t>TRI VALLEY TRANSPORTATION INC.</t>
   </si>
 </sst>
 </file>
@@ -175,12 +181,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -199,14 +205,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -554,9 +560,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -582,13 +587,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>973</v>
+        <v>1382</v>
       </c>
       <c r="C2" s="2">
-        <v>1018</v>
+        <v>1312</v>
       </c>
       <c r="D2" s="2">
-        <v>45</v>
+        <v>-70</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -599,13 +604,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>775.70099999999991</v>
+        <v>895.29600000000005</v>
       </c>
       <c r="C3" s="2">
-        <v>834.70500000000004</v>
+        <v>874.70600000000002</v>
       </c>
       <c r="D3" s="2">
-        <v>59.004000000000133</v>
+        <v>-20.590000000000028</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -616,21 +621,21 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>-7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>14</v>
@@ -642,21 +647,21 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>23325.45278</v>
+        <v>29969.371858063911</v>
       </c>
       <c r="C6" s="2">
-        <v>26979.472750000001</v>
+        <v>28227.515135833339</v>
       </c>
       <c r="D6" s="2">
-        <v>3654.0199699999939</v>
+        <v>-1741.856722230579</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -669,7 +674,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +687,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -693,123 +698,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +846,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -832,72 +859,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="D2" s="4">
-        <v>-21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="C3" s="2">
-        <v>293</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-16</v>
+        <v>360</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4">
-        <v>-7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
-        <v>-10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,97 +932,111 @@
         <v>40</v>
       </c>
       <c r="B6" s="2">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4">
-        <v>-11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D7" s="4">
-        <v>-5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2">
-        <v>185</v>
-      </c>
-      <c r="D8" s="3">
-        <v>83</v>
+        <v>229</v>
+      </c>
+      <c r="D8" s="4">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-13</v>
+        <v>151</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>34</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>9</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="C12" s="2">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-15</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1013,78 +1054,78 @@
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>84.850999999999999</v>
+        <v>55.08</v>
       </c>
       <c r="C2" s="2">
-        <v>83.364000000000004</v>
+        <v>95.1</v>
       </c>
       <c r="D2" s="4">
-        <v>-1.486999999999995</v>
+        <v>40.020000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>309.63900000000001</v>
+        <v>328.51</v>
       </c>
       <c r="C3" s="2">
-        <v>323.875</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14.23599999999999</v>
+        <v>330.82</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>2.4670000000000001</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>10.43</v>
       </c>
       <c r="D4" s="4">
-        <v>-2.4670000000000001</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2">
-        <v>8.4969999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>17.23</v>
       </c>
       <c r="D5" s="4">
-        <v>-8.4969999999999999</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,97 +1133,111 @@
         <v>40</v>
       </c>
       <c r="B6" s="2">
-        <v>104.56699999999999</v>
+        <v>8.35</v>
       </c>
       <c r="C6" s="2">
-        <v>99.382999999999996</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="D6" s="4">
-        <v>-5.1839999999999966</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
-        <v>4.8</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>95.68</v>
       </c>
       <c r="D7" s="4">
-        <v>-4.8</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2">
-        <v>90.787000000000006</v>
+        <v>126.54</v>
       </c>
       <c r="C8" s="2">
-        <v>159.62899999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>68.841999999999985</v>
+        <v>152.55000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>26.01</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2">
-        <v>10.083</v>
+        <v>73.95</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-10.083</v>
+        <v>63.85</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-10.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
-        <v>67.338999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="C10" s="2">
-        <v>76.372</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>9.0330000000000013</v>
+        <v>-8.85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
-        <v>23.617000000000001</v>
+        <v>21.07</v>
       </c>
       <c r="C11" s="2">
-        <v>23.849</v>
+        <v>12.43</v>
       </c>
       <c r="D11" s="3">
-        <v>0.23199999999999929</v>
+        <v>-8.64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>69.054000000000002</v>
+        <v>181.61</v>
       </c>
       <c r="C12" s="2">
-        <v>68.233000000000004</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-0.82099999999999795</v>
+        <v>78.09</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-103.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12.22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-12.22</v>
       </c>
     </row>
   </sheetData>
@@ -1200,32 +1255,33 @@
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="8" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1233,7 +1289,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1247,13 +1303,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="C4" s="2">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1261,13 +1317,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
-        <v>1180</v>
+        <v>885</v>
       </c>
       <c r="C5" s="2">
-        <v>1180</v>
+        <v>885</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1275,7 +1331,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>590</v>
@@ -1289,13 +1345,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
-        <v>416.72</v>
+        <v>1041.78</v>
       </c>
       <c r="C7" s="2">
-        <v>416.72</v>
+        <v>1041.78</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
